--- a/Zeitblaetter/Ursus Schneider.xlsx
+++ b/Zeitblaetter/Ursus Schneider.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ursus/Git/AlienHacky/Zeitblätter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ursus/Git/AlienHacky/Zeitblaetter/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>Datum</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>Protokol visualisierung</t>
+  </si>
+  <si>
+    <t>Presentation, Moving head aufbau</t>
+  </si>
+  <si>
+    <t>13:30 - 16:30,  16:30 - 17:30</t>
   </si>
 </sst>
 </file>
@@ -486,7 +492,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -815,6 +821,15 @@
         <f t="shared" si="0"/>
         <v>42669</v>
       </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
@@ -855,7 +870,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B5:B34)</f>
-        <v>41.75</v>
+        <v>45.75</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">

--- a/Zeitblaetter/Ursus Schneider.xlsx
+++ b/Zeitblaetter/Ursus Schneider.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ursus/Git/AlienHacky/Zeitblaetter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ursus/AlienHacky/Zeitblaetter/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oktober" sheetId="1" r:id="rId1"/>
@@ -143,10 +143,10 @@
     <t>Protokol visualisierung</t>
   </si>
   <si>
-    <t>Presentation, Moving head aufbau</t>
-  </si>
-  <si>
-    <t>13:30 - 16:30,  16:30 - 17:30</t>
+    <t>Presentation, Moving head aufbau, Fertigstellung Presentation</t>
+  </si>
+  <si>
+    <t>13:30 - 16:30,  16:30 - 17:30, 20:30 - 21:00</t>
   </si>
 </sst>
 </file>
@@ -822,7 +822,7 @@
         <v>42669</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
@@ -870,7 +870,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B5:B34)</f>
-        <v>45.75</v>
+        <v>46.25</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">

--- a/Zeitblaetter/Ursus Schneider.xlsx
+++ b/Zeitblaetter/Ursus Schneider.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Oktober" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>Datum</t>
   </si>
@@ -147,6 +147,18 @@
   </si>
   <si>
     <t>13:30 - 16:30,  16:30 - 17:30, 20:30 - 21:00</t>
+  </si>
+  <si>
+    <t>Git probleme mit Sonderzeichen bereinigt und fehlende Dateien gefunden</t>
+  </si>
+  <si>
+    <t>17:30 - 18:00</t>
+  </si>
+  <si>
+    <t>CC2531 probiert in betrieb zu nehmen</t>
+  </si>
+  <si>
+    <t>14:00 - 18:00</t>
   </si>
 </sst>
 </file>
@@ -491,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -849,46 +861,55 @@
         <v>42672</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>42673</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>42674</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>0.5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="2">
         <f>SUM(B5:B34)</f>
-        <v>46.25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+        <v>46.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
     </row>
   </sheetData>
@@ -898,10 +919,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -909,12 +930,12 @@
     <col min="3" max="3" width="56.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -925,78 +946,87 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>42675</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f>A4+1</f>
         <v>42676</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f t="shared" ref="A6:A33" si="0">A5+1</f>
         <v>42677</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>42678</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>42679</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>42680</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>42681</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>42682</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>42683</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>42684</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>42685</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>42686</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>42687</v>

--- a/Zeitblaetter/Ursus Schneider.xlsx
+++ b/Zeitblaetter/Ursus Schneider.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Oktober" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>Datum</t>
   </si>
@@ -147,6 +147,24 @@
   </si>
   <si>
     <t>13:30 - 16:30,  16:30 - 17:30, 20:30 - 21:00</t>
+  </si>
+  <si>
+    <t>Git probleme mit Sonderzeichen bereinigt und fehlende Dateien gefunden</t>
+  </si>
+  <si>
+    <t>17:30 - 18:00</t>
+  </si>
+  <si>
+    <t>CC2531 probiert in betrieb zu nehmen</t>
+  </si>
+  <si>
+    <t>14:00 - 18:00</t>
+  </si>
+  <si>
+    <t>ZigBee 4 Java installation mit Marcel und Jim</t>
+  </si>
+  <si>
+    <t>08:30 - 09:30</t>
   </si>
 </sst>
 </file>
@@ -491,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -849,46 +867,55 @@
         <v>42672</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>42673</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>42674</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>0.5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="2">
         <f>SUM(B5:B34)</f>
-        <v>46.25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+        <v>46.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
     </row>
   </sheetData>
@@ -898,10 +925,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -909,12 +936,12 @@
     <col min="3" max="3" width="56.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -925,78 +952,96 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>42675</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f>A4+1</f>
         <v>42676</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f t="shared" ref="A6:A33" si="0">A5+1</f>
         <v>42677</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>42678</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>42679</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>42680</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>42681</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>42682</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>42683</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>42684</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>42685</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>42686</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>42687</v>
@@ -1116,7 +1161,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B5:B34)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Ursus Schneider.xlsx
+++ b/Zeitblaetter/Ursus Schneider.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Oktober" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>Datum</t>
   </si>
@@ -165,6 +165,15 @@
   </si>
   <si>
     <t>08:30 - 09:30</t>
+  </si>
+  <si>
+    <t>Uart test</t>
+  </si>
+  <si>
+    <t>18:00 - 20:00</t>
+  </si>
+  <si>
+    <t>16:00 - 17:00, 18:00 - 20:00</t>
   </si>
 </sst>
 </file>
@@ -928,7 +937,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1010,11 +1019,29 @@
         <f t="shared" si="0"/>
         <v>42681</v>
       </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>42682</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1160,8 +1187,8 @@
         <v>6</v>
       </c>
       <c r="B36" s="2">
-        <f>SUM(B5:B34)</f>
-        <v>1</v>
+        <f>SUM(B4:B34)</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Ursus Schneider.xlsx
+++ b/Zeitblaetter/Ursus Schneider.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t>Datum</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>16:00 - 17:00, 18:00 - 20:00</t>
+  </si>
+  <si>
+    <t>Uart / RF</t>
+  </si>
+  <si>
+    <t>08:15 - 11:00</t>
   </si>
 </sst>
 </file>
@@ -937,7 +943,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1049,6 +1055,15 @@
         <f t="shared" si="0"/>
         <v>42683</v>
       </c>
+      <c r="B12">
+        <v>2.75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -1188,7 +1203,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B4:B34)</f>
-        <v>10</v>
+        <v>12.75</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Ursus Schneider.xlsx
+++ b/Zeitblaetter/Ursus Schneider.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Oktober" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>Datum</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>08:15 - 11:00</t>
+  </si>
+  <si>
+    <t>UART / queue</t>
+  </si>
+  <si>
+    <t>16:00 - 21:00</t>
   </si>
 </sst>
 </file>
@@ -943,7 +949,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1088,6 +1094,15 @@
         <f t="shared" si="0"/>
         <v>42687</v>
       </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -1203,7 +1218,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B4:B34)</f>
-        <v>12.75</v>
+        <v>17.75</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Ursus Schneider.xlsx
+++ b/Zeitblaetter/Ursus Schneider.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Oktober" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>Datum</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>16:00 - 21:00</t>
+  </si>
+  <si>
+    <t>9 :00 - 10:00, 18:00 - 20:00</t>
+  </si>
+  <si>
+    <t>19:00 - 21:00</t>
   </si>
 </sst>
 </file>
@@ -948,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1104,97 +1110,115 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>42688</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>42689</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>42690</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>42691</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>42692</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>42693</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>42694</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>42695</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>42696</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>42697</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>42698</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>42699</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>42700</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>42701</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>42702</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>42703</v>
@@ -1218,7 +1242,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B4:B34)</f>
-        <v>17.75</v>
+        <v>22.75</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Ursus Schneider.xlsx
+++ b/Zeitblaetter/Ursus Schneider.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t>Datum</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>19:00 - 21:00</t>
+  </si>
+  <si>
+    <t>08:30 - 10:30</t>
   </si>
 </sst>
 </file>
@@ -954,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1151,6 +1154,15 @@
         <f t="shared" si="0"/>
         <v>42691</v>
       </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
@@ -1242,7 +1254,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B4:B34)</f>
-        <v>22.75</v>
+        <v>24.75</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Ursus Schneider.xlsx
+++ b/Zeitblaetter/Ursus Schneider.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t>Datum</t>
   </si>
@@ -195,6 +195,18 @@
   </si>
   <si>
     <t>08:30 - 10:30</t>
+  </si>
+  <si>
+    <t>Teamsitzung, Aufräumen master branch</t>
+  </si>
+  <si>
+    <t>17:00 - 18:00</t>
+  </si>
+  <si>
+    <t>Administration, master branch aufräumen</t>
+  </si>
+  <si>
+    <t>14:00 - 15:30</t>
   </si>
 </sst>
 </file>
@@ -957,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1199,6 +1211,15 @@
         <f t="shared" si="0"/>
         <v>42697</v>
       </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
@@ -1222,6 +1243,15 @@
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>42701</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1254,7 +1284,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B4:B34)</f>
-        <v>24.75</v>
+        <v>26.75</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Ursus Schneider.xlsx
+++ b/Zeitblaetter/Ursus Schneider.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Oktober" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
   <si>
     <t>Datum</t>
   </si>
@@ -203,10 +203,16 @@
     <t>17:00 - 18:00</t>
   </si>
   <si>
-    <t>Administration, master branch aufräumen</t>
-  </si>
-  <si>
-    <t>14:00 - 15:30</t>
+    <t>14:00 - 15:00, 19:30 - 21:00</t>
+  </si>
+  <si>
+    <t>Administration + master branch aufräumen, problemsuche UART</t>
+  </si>
+  <si>
+    <t>UART problem mit callback suchen</t>
+  </si>
+  <si>
+    <t>17:00 - 18:30</t>
   </si>
 </sst>
 </file>
@@ -970,7 +976,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1245,19 +1251,28 @@
         <v>42701</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="C30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" t="s">
         <v>57</v>
-      </c>
-      <c r="D30" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>42702</v>
+      </c>
+      <c r="B31">
+        <v>1.5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1284,7 +1299,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B4:B34)</f>
-        <v>26.75</v>
+        <v>29.75</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Ursus Schneider.xlsx
+++ b/Zeitblaetter/Ursus Schneider.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
   <si>
     <t>Datum</t>
   </si>
@@ -213,6 +213,12 @@
   </si>
   <si>
     <t>17:00 - 18:30</t>
+  </si>
+  <si>
+    <t>UART Problem mit callback behoben</t>
+  </si>
+  <si>
+    <t>17:30 - 18:30</t>
   </si>
 </sst>
 </file>
@@ -976,7 +982,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1280,6 +1286,15 @@
         <f t="shared" si="0"/>
         <v>42703</v>
       </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
@@ -1299,7 +1314,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B4:B34)</f>
-        <v>29.75</v>
+        <v>30.75</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Ursus Schneider.xlsx
+++ b/Zeitblaetter/Ursus Schneider.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1620" yWindow="940" windowWidth="29640" windowHeight="17940" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Oktober" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
   <si>
     <t>Datum</t>
   </si>
@@ -207,6 +207,18 @@
   </si>
   <si>
     <t>14:00 - 15:30</t>
+  </si>
+  <si>
+    <t>UART problem nachgehen</t>
+  </si>
+  <si>
+    <t>17:00 - 19:00</t>
+  </si>
+  <si>
+    <t>14:00 - 16:30</t>
+  </si>
+  <si>
+    <t>Teammeating, zusammenführen UART und RF</t>
   </si>
 </sst>
 </file>
@@ -970,7 +982,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1259,32 +1271,59 @@
         <f t="shared" si="0"/>
         <v>42702</v>
       </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>42703</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>42704</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>2.5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="2">
         <f>SUM(B4:B34)</f>
-        <v>26.75</v>
+        <v>32.25</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Ursus Schneider.xlsx
+++ b/Zeitblaetter/Ursus Schneider.xlsx
@@ -215,10 +215,10 @@
     <t>17:00 - 19:00</t>
   </si>
   <si>
-    <t>14:00 - 16:30</t>
-  </si>
-  <si>
     <t>Teammeating, zusammenführen UART und RF</t>
+  </si>
+  <si>
+    <t>14:00 - 17:00</t>
   </si>
 </sst>
 </file>
@@ -982,7 +982,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1302,13 +1302,13 @@
         <v>42704</v>
       </c>
       <c r="B33">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" t="s">
         <v>62</v>
-      </c>
-      <c r="D33" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B4:B34)</f>
-        <v>32.25</v>
+        <v>32.75</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Ursus Schneider.xlsx
+++ b/Zeitblaetter/Ursus Schneider.xlsx
@@ -218,7 +218,7 @@
     <t>Teammeating, zusammenführen UART und RF</t>
   </si>
   <si>
-    <t>14:00 - 17:00</t>
+    <t>14:00 - 16:30</t>
   </si>
 </sst>
 </file>
@@ -982,7 +982,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1302,7 +1302,7 @@
         <v>42704</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="C33" t="s">
         <v>61</v>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B4:B34)</f>
-        <v>32.75</v>
+        <v>32.25</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Ursus Schneider.xlsx
+++ b/Zeitblaetter/Ursus Schneider.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="940" windowWidth="29640" windowHeight="17940" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1620" yWindow="940" windowWidth="29640" windowHeight="17940" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Oktober" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
   <si>
     <t>Datum</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>14:00 - 16:30</t>
+  </si>
+  <si>
+    <t>Kode Review, Architektur</t>
+  </si>
+  <si>
+    <t>09:00 - 10:30</t>
   </si>
 </sst>
 </file>
@@ -563,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -950,7 +956,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="2">
-        <f>SUM(B5:B34)</f>
+        <f>SUM(B4:B34)</f>
         <v>46.75</v>
       </c>
     </row>
@@ -981,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1333,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1344,12 +1350,12 @@
     <col min="3" max="3" width="61.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1360,78 +1366,87 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>42705</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1.5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f>A4+1</f>
         <v>42706</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f t="shared" ref="A6:A34" si="0">A5+1</f>
         <v>42707</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>42708</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>42709</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>42710</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>42711</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>42712</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>42713</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>42714</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>42715</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>42716</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>42717</v>
@@ -1553,8 +1568,8 @@
         <v>6</v>
       </c>
       <c r="B36" s="2">
-        <f>SUM(B5:B34)</f>
-        <v>0</v>
+        <f>SUM(B4:B34)</f>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Ursus Schneider.xlsx
+++ b/Zeitblaetter/Ursus Schneider.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
   <si>
     <t>Datum</t>
   </si>
@@ -225,6 +225,24 @@
   </si>
   <si>
     <t>09:00 - 10:30</t>
+  </si>
+  <si>
+    <t>Teammeeting</t>
+  </si>
+  <si>
+    <t>08:00 - 09:45</t>
+  </si>
+  <si>
+    <t>Architektur überarbeiten</t>
+  </si>
+  <si>
+    <t>Programmierung von UART für Bridge</t>
+  </si>
+  <si>
+    <t>09:00 - 13:00</t>
+  </si>
+  <si>
+    <t>14:00 -15:00</t>
   </si>
 </sst>
 </file>
@@ -1342,7 +1360,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1403,17 +1421,44 @@
         <f t="shared" si="0"/>
         <v>42709</v>
       </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>42710</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>42711</v>
+      </c>
+      <c r="B10">
+        <v>1.75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1569,7 +1614,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B4:B34)</f>
-        <v>1.5</v>
+        <v>8.25</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Ursus Schneider.xlsx
+++ b/Zeitblaetter/Ursus Schneider.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
   <si>
     <t>Datum</t>
   </si>
@@ -243,6 +243,12 @@
   </si>
   <si>
     <t>14:00 -15:00</t>
+  </si>
+  <si>
+    <t>Probieren den zweiten CC2650 zum laufen zu bringen, Einbauen UART_receive test code</t>
+  </si>
+  <si>
+    <t>10:30 - 12:30, 21:30 - 23:45</t>
   </si>
 </sst>
 </file>
@@ -1360,7 +1366,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1466,6 +1472,15 @@
         <f t="shared" si="0"/>
         <v>42712</v>
       </c>
+      <c r="B11">
+        <v>4.25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -1614,7 +1629,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B4:B34)</f>
-        <v>8.25</v>
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Ursus Schneider.xlsx
+++ b/Zeitblaetter/Ursus Schneider.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
   <si>
     <t>Datum</t>
   </si>
@@ -249,6 +249,12 @@
   </si>
   <si>
     <t>10:30 - 12:30, 21:30 - 23:45</t>
+  </si>
+  <si>
+    <t>Programmieren von UART für Server</t>
+  </si>
+  <si>
+    <t>12:00 - 18:00</t>
   </si>
 </sst>
 </file>
@@ -1366,7 +1372,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1487,6 +1493,15 @@
         <f t="shared" si="0"/>
         <v>42713</v>
       </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -1629,7 +1644,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B4:B34)</f>
-        <v>12.5</v>
+        <v>18.5</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Ursus Schneider.xlsx
+++ b/Zeitblaetter/Ursus Schneider.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="940" windowWidth="29640" windowHeight="17940" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="13820" yWindow="6060" windowWidth="29640" windowHeight="17940" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Oktober" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
   <si>
     <t>Datum</t>
   </si>
@@ -255,6 +255,18 @@
   </si>
   <si>
     <t>12:00 - 18:00</t>
+  </si>
+  <si>
+    <t>write umgestelt</t>
+  </si>
+  <si>
+    <t>21:00 - 22:00</t>
+  </si>
+  <si>
+    <t>UArt Receive Programmiert</t>
+  </si>
+  <si>
+    <t>12:00 - 14:30</t>
   </si>
 </sst>
 </file>
@@ -1372,7 +1384,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1514,6 +1526,15 @@
         <f t="shared" si="0"/>
         <v>42715</v>
       </c>
+      <c r="B14">
+        <v>2.5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -1525,6 +1546,15 @@
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>42717</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -1644,7 +1674,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B4:B34)</f>
-        <v>18.5</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Ursus Schneider.xlsx
+++ b/Zeitblaetter/Ursus Schneider.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13820" yWindow="6060" windowWidth="29640" windowHeight="17940" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="3960" yWindow="2980" windowWidth="29640" windowHeight="17940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oktober" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
   <si>
     <t>Datum</t>
   </si>
@@ -267,6 +267,12 @@
   </si>
   <si>
     <t>12:00 - 14:30</t>
+  </si>
+  <si>
+    <t>15:45 - 18:15</t>
+  </si>
+  <si>
+    <t>Teammeeting, Integration Node / Bridge / UART Server</t>
   </si>
 </sst>
 </file>
@@ -611,7 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -1383,8 +1389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1557,97 +1563,106 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>42718</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>3.5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>42719</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>42720</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>42721</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>42722</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>42723</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>42724</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>42725</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>42726</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>42727</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>42728</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>42729</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>42730</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>42731</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>42732</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>42733</v>
@@ -1674,7 +1689,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B4:B34)</f>
-        <v>22</v>
+        <v>25.5</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Ursus Schneider.xlsx
+++ b/Zeitblaetter/Ursus Schneider.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="2980" windowWidth="29640" windowHeight="17940" tabRatio="500"/>
+    <workbookView xWindow="3960" yWindow="2980" windowWidth="29640" windowHeight="17940" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Oktober" sheetId="1" r:id="rId1"/>
@@ -617,7 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -1389,13 +1389,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="61.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.3">
@@ -1569,7 +1570,7 @@
         <v>42718</v>
       </c>
       <c r="B17">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="C17" t="s">
         <v>80</v>
@@ -1689,7 +1690,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B4:B34)</f>
-        <v>25.5</v>
+        <v>24.5</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Ursus Schneider.xlsx
+++ b/Zeitblaetter/Ursus Schneider.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
   <si>
     <t>Datum</t>
   </si>
@@ -273,6 +273,12 @@
   </si>
   <si>
     <t>Teammeeting, Integration Node / Bridge / UART Server</t>
+  </si>
+  <si>
+    <t>Projekt Kommandozentral angefangen</t>
+  </si>
+  <si>
+    <t>18:30 - 20:30</t>
   </si>
 </sst>
 </file>
@@ -1390,7 +1396,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1602,6 +1608,15 @@
         <f t="shared" si="0"/>
         <v>42722</v>
       </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
@@ -1690,7 +1705,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B4:B34)</f>
-        <v>24.5</v>
+        <v>26.5</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Ursus Schneider.xlsx
+++ b/Zeitblaetter/Ursus Schneider.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="85">
   <si>
     <t>Datum</t>
   </si>
@@ -279,6 +279,12 @@
   </si>
   <si>
     <t>18:30 - 20:30</t>
+  </si>
+  <si>
+    <t>Kommandozentrale grundgerüst fertig gestellt</t>
+  </si>
+  <si>
+    <t>19:00 - 22:15</t>
   </si>
 </sst>
 </file>
@@ -1396,7 +1402,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1629,6 +1635,15 @@
         <f t="shared" si="0"/>
         <v>42724</v>
       </c>
+      <c r="B23">
+        <v>3.25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
@@ -1705,7 +1720,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B4:B34)</f>
-        <v>26.5</v>
+        <v>29.75</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Ursus Schneider.xlsx
+++ b/Zeitblaetter/Ursus Schneider.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="89">
   <si>
     <t>Datum</t>
   </si>
@@ -285,6 +285,18 @@
   </si>
   <si>
     <t>19:00 - 22:15</t>
+  </si>
+  <si>
+    <t>Angefangen Central fertig zu stellen, Abklärungen mit Jim</t>
+  </si>
+  <si>
+    <t>14:30 - 16:00</t>
+  </si>
+  <si>
+    <t>Mit git gekämpft um die workspace.xml zu löschen</t>
+  </si>
+  <si>
+    <t>18:00 - 19:00</t>
   </si>
 </sst>
 </file>
@@ -1402,7 +1414,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1698,29 +1710,47 @@
         <f t="shared" si="0"/>
         <v>42733</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>42734</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>1.5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>42735</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="2">
         <f>SUM(B4:B34)</f>
-        <v>29.75</v>
+        <v>32.25</v>
       </c>
     </row>
   </sheetData>
